--- a/Synoptic/Data/2021-02/202102_GHG_GCHeadspace.xlsx
+++ b/Synoptic/Data/2021-02/202102_GHG_GCHeadspace.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carla López Lloreda\Dropbox\Grad school\Research\Delmarva project\Data\Synoptic\Data\2021-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C25522-65DF-4C77-A5F6-8C2F696552C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E7BE75-E920-4036-89A2-E43790403C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GC" sheetId="124" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GC!$A$1:$S$127</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -987,7 +990,7 @@
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1003,6 +1006,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="20% - Accent1" xfId="29" builtinId="30" customBuiltin="1"/>
@@ -1335,10 +1342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S127"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1349,7 +1357,7 @@
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="6" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" style="9" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" style="9"/>
@@ -1419,2258 +1427,3092 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>37</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="8"/>
+      <c r="C2">
+        <v>6.1189999999999998</v>
+      </c>
+      <c r="D2">
+        <v>2552</v>
+      </c>
       <c r="E2" s="5">
         <v>2.6638848032000002</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="F2" s="9">
+        <v>12.286</v>
+      </c>
+      <c r="G2" s="12">
+        <v>2796</v>
+      </c>
       <c r="H2" s="6">
         <v>530.61008556384002</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    </row>
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>37</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6">
+      <c r="C3">
+        <v>6.11</v>
+      </c>
+      <c r="D3">
+        <v>1400</v>
+      </c>
+      <c r="E3" s="9">
         <v>-1.4763820000000001</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8">
+      <c r="F3" s="9">
+        <v>12.287000000000001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2752</v>
+      </c>
+      <c r="H3" s="9">
         <v>522.20125482496007</v>
       </c>
-      <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
+      <c r="C4">
+        <v>6.0590000000000002</v>
+      </c>
+      <c r="D4">
+        <v>1306</v>
+      </c>
       <c r="E4" s="6">
         <v>-1.8210036061999997</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6">
+      <c r="F4" s="6">
+        <v>12.269</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2782</v>
+      </c>
+      <c r="H4" s="8">
         <v>527.9345553397601</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>38</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5">
+      <c r="C5">
+        <v>6.04</v>
+      </c>
+      <c r="D5">
+        <v>601721</v>
+      </c>
+      <c r="E5" s="6">
         <v>1541.3496942334232</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6">
+      <c r="F5" s="9">
+        <v>12.249000000000001</v>
+      </c>
+      <c r="G5" s="12">
+        <v>8348</v>
+      </c>
+      <c r="H5" s="8">
         <v>1591.1464551689601</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>38</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="6">
+      <c r="C6" s="6">
+        <v>6.0490000000000004</v>
+      </c>
+      <c r="D6" s="8">
+        <v>629791</v>
+      </c>
+      <c r="E6" s="5">
         <v>1611.1348075249671</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
+      <c r="F6" s="9">
+        <v>12.263</v>
+      </c>
+      <c r="G6" s="8">
+        <v>7639</v>
+      </c>
+      <c r="H6" s="6">
         <v>1455.76995874054</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+    </row>
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
+      <c r="C7">
+        <v>6.04</v>
+      </c>
+      <c r="D7">
+        <v>872429</v>
+      </c>
       <c r="E7" s="6">
         <v>2186.2025067442501</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6">
+      <c r="F7" s="6">
+        <v>12.244</v>
+      </c>
+      <c r="G7" s="8">
+        <v>9424</v>
+      </c>
+      <c r="H7" s="8">
         <v>1796.5667205222403</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>51</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
+      <c r="C8">
+        <v>6.0570000000000004</v>
+      </c>
+      <c r="D8">
+        <v>10701</v>
+      </c>
       <c r="E8" s="5">
         <v>27.772190571619102</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="F8" s="9">
+        <v>12.217000000000001</v>
+      </c>
+      <c r="G8" s="12">
+        <v>12324</v>
+      </c>
       <c r="H8" s="6">
         <v>2350.02121533024</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>43</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="8"/>
+      <c r="C9">
+        <v>6.056</v>
+      </c>
+      <c r="D9">
+        <v>10077</v>
+      </c>
       <c r="E9" s="5">
         <v>26.129518097183901</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="F9" s="9">
+        <v>12.208</v>
+      </c>
+      <c r="G9" s="12">
+        <v>11907</v>
+      </c>
       <c r="H9" s="6">
         <v>2270.4551116872603</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="5"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>69</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
+      <c r="C10">
+        <v>6.0750000000000002</v>
+      </c>
+      <c r="D10">
+        <v>10183</v>
+      </c>
       <c r="E10" s="5">
         <v>26.4085684571799</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="F10" s="9">
+        <v>12.243</v>
+      </c>
+      <c r="G10" s="12">
+        <v>12853</v>
+      </c>
       <c r="H10" s="6">
         <v>2450.9494543576602</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="5"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>53</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
+      <c r="C11">
+        <v>6.0279999999999996</v>
+      </c>
+      <c r="D11">
+        <v>311448</v>
+      </c>
       <c r="E11" s="5">
         <v>808.52709732448636</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="F11" s="9">
+        <v>12.145</v>
+      </c>
+      <c r="G11" s="12">
+        <v>60151</v>
+      </c>
       <c r="H11" s="6">
         <v>11438.182198055742</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="O11" s="6"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>71</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
+      <c r="C12">
+        <v>6.04</v>
+      </c>
+      <c r="D12">
+        <v>312841</v>
+      </c>
       <c r="E12" s="5">
         <v>812.09251350412706</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="F12" s="9">
+        <v>12.144</v>
+      </c>
+      <c r="G12" s="12">
+        <v>59569</v>
+      </c>
       <c r="H12" s="6">
         <v>11328.03674672614</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="5"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>49</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
+      <c r="C13">
+        <v>6.0449999999999999</v>
+      </c>
+      <c r="D13">
+        <v>307305</v>
+      </c>
       <c r="E13" s="5">
         <v>797.92021871027748</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="F13" s="9">
+        <v>12.157999999999999</v>
+      </c>
+      <c r="G13" s="12">
+        <v>60615</v>
+      </c>
       <c r="H13" s="6">
         <v>11525.9878620615</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="5"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>57</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
+      <c r="C14">
+        <v>6.0469999999999997</v>
+      </c>
+      <c r="D14">
+        <v>61102</v>
+      </c>
       <c r="E14" s="5">
         <v>160.14129536255641</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="F14" s="9">
+        <v>12.179</v>
+      </c>
+      <c r="G14" s="12">
+        <v>41136</v>
+      </c>
       <c r="H14" s="6">
         <v>7833.8305077350396</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="5"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>76</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
+      <c r="C15">
+        <v>6.0439999999999996</v>
+      </c>
+      <c r="D15">
+        <v>60325</v>
+      </c>
       <c r="E15" s="5">
         <v>158.1053071299375</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="F15" s="9">
+        <v>12.167</v>
+      </c>
+      <c r="G15" s="12">
+        <v>42483</v>
+      </c>
       <c r="H15" s="6">
         <v>8089.54546600086</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>47</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
+      <c r="C16">
+        <v>6.0460000000000003</v>
+      </c>
+      <c r="D16">
+        <v>59492</v>
+      </c>
       <c r="E16" s="5">
         <v>155.92241886406242</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="F16" s="9">
+        <v>12.18</v>
+      </c>
+      <c r="G16" s="12">
+        <v>40965</v>
+      </c>
       <c r="H16" s="6">
         <v>7801.3635862815008</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>45</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
+      <c r="C17">
+        <v>6.0949999999999998</v>
+      </c>
+      <c r="D17">
+        <v>3795</v>
+      </c>
       <c r="E17" s="5">
         <v>6.9586876512500009</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="F17" s="9">
+        <v>12.223000000000001</v>
+      </c>
+      <c r="G17" s="12">
+        <v>4158</v>
+      </c>
       <c r="H17" s="6">
         <v>790.87048144536016</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="O17" s="5"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>65</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
+      <c r="C18">
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="D18">
+        <v>4238</v>
+      </c>
       <c r="E18" s="5">
         <v>8.4460546801999996</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="F18" s="9">
+        <v>12.204000000000001</v>
+      </c>
+      <c r="G18" s="12">
+        <v>4574</v>
+      </c>
       <c r="H18" s="6">
         <v>870.35061680024012</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="O18" s="5"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>61</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="8"/>
+      <c r="C19">
+        <v>6.0830000000000002</v>
+      </c>
+      <c r="D19">
+        <v>3493</v>
+      </c>
       <c r="E19" s="5">
         <v>5.9316882104500017</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="F19" s="9">
+        <v>12.212</v>
+      </c>
+      <c r="G19" s="12">
+        <v>4620</v>
+      </c>
       <c r="H19" s="6">
         <v>879.13894005600014</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="7"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>59</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="8"/>
+      <c r="C20">
+        <v>6.0270000000000001</v>
+      </c>
+      <c r="D20">
+        <v>50741</v>
+      </c>
       <c r="E20" s="5">
         <v>132.98015992610712</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="F20" s="9">
+        <v>12.167</v>
+      </c>
+      <c r="G20" s="12">
+        <v>14338</v>
+      </c>
       <c r="H20" s="6">
         <v>2734.2248977525601</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>73</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="8"/>
+      <c r="C21">
+        <v>6.0220000000000002</v>
+      </c>
+      <c r="D21">
+        <v>49144</v>
+      </c>
       <c r="E21" s="5">
         <v>128.79135045221759</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="F21" s="9">
+        <v>12.162000000000001</v>
+      </c>
+      <c r="G21" s="12">
+        <v>13246</v>
+      </c>
       <c r="H21" s="6">
         <v>2525.9242770498399</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>63</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="8"/>
+      <c r="C22">
+        <v>6.0439999999999996</v>
+      </c>
+      <c r="D22">
+        <v>48547</v>
+      </c>
       <c r="E22" s="5">
         <v>127.22530652483189</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="F22" s="9">
+        <v>12.195</v>
+      </c>
+      <c r="G22" s="12">
+        <v>13459</v>
+      </c>
       <c r="H22" s="6">
         <v>2566.5573874869397</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="7"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>75</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="8"/>
+      <c r="C23">
+        <v>6.1210000000000004</v>
+      </c>
+      <c r="D23">
+        <v>2544</v>
+      </c>
       <c r="E23" s="5">
         <v>2.6356633087999999</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="F23" s="9">
+        <v>12.163</v>
+      </c>
+      <c r="G23" s="12">
+        <v>48582</v>
+      </c>
       <c r="H23" s="6">
         <v>9246.6433736277595</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="7"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>41</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="5">
+      <c r="C24">
+        <v>6.0839999999999996</v>
+      </c>
+      <c r="D24">
+        <v>2674</v>
+      </c>
+      <c r="E24" s="6">
         <v>3.0933435058000001</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6">
+      <c r="F24" s="9">
+        <v>12.178000000000001</v>
+      </c>
+      <c r="G24" s="12">
+        <v>49259</v>
+      </c>
+      <c r="H24" s="8">
         <v>9375.0087379429406</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="O24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>55</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
+      <c r="C25">
+        <v>6.1180000000000003</v>
+      </c>
+      <c r="D25">
+        <v>2638</v>
+      </c>
       <c r="E25" s="5">
         <v>2.9667974002000008</v>
       </c>
-      <c r="G25" s="8"/>
+      <c r="F25" s="9">
+        <v>12.178000000000001</v>
+      </c>
+      <c r="G25" s="12">
+        <v>43141</v>
+      </c>
       <c r="H25" s="6">
         <v>8214.4389679749402</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
+      <c r="L25" s="11"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>77</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
+      <c r="C26">
+        <v>6.0670000000000002</v>
+      </c>
+      <c r="D26">
+        <v>5187</v>
+      </c>
       <c r="E26" s="5">
         <v>11.555758046449998</v>
       </c>
-      <c r="G26" s="8"/>
+      <c r="F26" s="6">
+        <v>12.208</v>
+      </c>
+      <c r="G26" s="8">
+        <v>5041</v>
+      </c>
       <c r="H26" s="6">
         <v>959.56800606694003</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="7"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="O26" s="6"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <v>42</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="5">
+      <c r="C27">
+        <v>6.07</v>
+      </c>
+      <c r="D27">
+        <v>5230</v>
+      </c>
+      <c r="E27" s="6">
         <v>11.694189444999999</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="F27" s="9">
+        <v>12.199</v>
+      </c>
+      <c r="G27" s="12">
+        <v>5321</v>
+      </c>
       <c r="H27" s="6">
         <v>1013.0568299533401</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="O27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>50</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
+      <c r="C28">
+        <v>6.0739999999999998</v>
+      </c>
+      <c r="D28">
+        <v>5415</v>
+      </c>
       <c r="E28" s="5">
         <v>12.287322061249998</v>
       </c>
-      <c r="G28" s="8"/>
+      <c r="F28" s="9">
+        <v>12.234</v>
+      </c>
+      <c r="G28" s="12">
+        <v>5620</v>
+      </c>
       <c r="H28" s="6">
         <v>1070.1724376560001</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="7"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>58</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="8"/>
+      <c r="C29">
+        <v>6.0439999999999996</v>
+      </c>
+      <c r="D29">
+        <v>54118</v>
+      </c>
       <c r="E29" s="5">
         <v>141.83574316698841</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="F29" s="9">
+        <v>12.196999999999999</v>
+      </c>
+      <c r="G29" s="12">
+        <v>22010</v>
+      </c>
       <c r="H29" s="6">
         <v>4196.577003974</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>64</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
+      <c r="C30">
+        <v>6.0250000000000004</v>
+      </c>
+      <c r="D30">
+        <v>52270</v>
+      </c>
       <c r="E30" s="5">
         <v>136.99003271439003</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="F30" s="9">
+        <v>12.164999999999999</v>
+      </c>
+      <c r="G30" s="12">
+        <v>22574</v>
+      </c>
       <c r="H30" s="6">
         <v>4304.00494016024</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="7"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="5"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>72</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="8"/>
+      <c r="C31">
+        <v>6.0419999999999998</v>
+      </c>
+      <c r="D31">
+        <v>51765</v>
+      </c>
       <c r="E31" s="5">
         <v>135.66570951929751</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="F31" s="9">
+        <v>12.186</v>
+      </c>
+      <c r="G31" s="12">
+        <v>22632</v>
+      </c>
       <c r="H31" s="6">
         <v>4315.0519072857596</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="7"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="5"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>48</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
+      <c r="C32">
+        <v>6.0979999999999999</v>
+      </c>
+      <c r="D32">
+        <v>3879</v>
+      </c>
       <c r="E32" s="5">
         <v>7.2424641540499994</v>
       </c>
-      <c r="G32" s="8"/>
+      <c r="F32" s="9">
+        <v>12.217000000000001</v>
+      </c>
+      <c r="G32" s="12">
+        <v>3693</v>
+      </c>
       <c r="H32" s="6">
         <v>702.02184207126015</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="7"/>
+      <c r="L32" s="11"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="O32" s="5"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <v>56</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="8"/>
+      <c r="C33">
+        <v>6.07</v>
+      </c>
+      <c r="D33">
+        <v>4203</v>
+      </c>
       <c r="E33" s="5">
         <v>8.3293701384500007</v>
       </c>
-      <c r="G33" s="8"/>
+      <c r="F33" s="9">
+        <v>12.189</v>
+      </c>
+      <c r="G33" s="12">
+        <v>3647</v>
+      </c>
       <c r="H33" s="6">
         <v>693.23213209766016</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="7"/>
+      <c r="L33" s="11"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+      <c r="O33" s="6"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
         <v>44</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
+      <c r="C34">
+        <v>6.0860000000000003</v>
+      </c>
+      <c r="D34">
+        <v>3961</v>
+      </c>
       <c r="E34" s="5">
         <v>7.5186952580500002</v>
       </c>
-      <c r="G34" s="8"/>
+      <c r="F34" s="9">
+        <v>12.228</v>
+      </c>
+      <c r="G34" s="12">
+        <v>3184</v>
+      </c>
       <c r="H34" s="6">
         <v>604.75795846144001</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="7"/>
+      <c r="L34" s="11"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+      <c r="O34" s="5"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
         <v>39</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="5">
+      <c r="C35">
+        <v>6.05</v>
+      </c>
+      <c r="D35">
+        <v>13946</v>
+      </c>
+      <c r="E35" s="6">
         <v>36.313096048255609</v>
       </c>
-      <c r="G35" s="8"/>
+      <c r="F35" s="9">
+        <v>12.151</v>
+      </c>
+      <c r="G35" s="12">
+        <v>62750</v>
+      </c>
       <c r="H35" s="6">
         <v>11929.91723375</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
+      <c r="O35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>62</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
+      <c r="C36">
+        <v>6.032</v>
+      </c>
+      <c r="D36">
+        <v>14343</v>
+      </c>
       <c r="E36" s="5">
         <v>37.357833252635906</v>
       </c>
-      <c r="G36" s="8"/>
+      <c r="F36" s="9">
+        <v>12.121</v>
+      </c>
+      <c r="G36" s="12">
+        <v>64574</v>
+      </c>
       <c r="H36" s="6">
         <v>12274.88982800024</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
+      <c r="L36" s="11"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="5"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
         <v>68</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
+      <c r="C37">
+        <v>6.048</v>
+      </c>
+      <c r="D37">
+        <v>14058</v>
+      </c>
       <c r="E37" s="5">
         <v>36.607836851692404</v>
       </c>
-      <c r="G37" s="8"/>
+      <c r="F37" s="9">
+        <v>12.148</v>
+      </c>
+      <c r="G37" s="12">
+        <v>61323</v>
+      </c>
       <c r="H37" s="6">
         <v>11659.953702050459</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="7"/>
+      <c r="L37" s="11"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
+      <c r="O37" s="6"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
         <v>74</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="8"/>
+      <c r="C38">
+        <v>6.0410000000000004</v>
+      </c>
+      <c r="D38">
+        <v>151682</v>
+      </c>
       <c r="E38" s="5">
         <v>396.48937181890841</v>
       </c>
-      <c r="G38" s="8"/>
+      <c r="F38" s="9">
+        <v>12.093999999999999</v>
+      </c>
+      <c r="G38" s="12">
+        <v>132439</v>
+      </c>
       <c r="H38" s="6">
         <v>25033.276957396542</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="7"/>
+      <c r="L38" s="11"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
         <v>40</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
+      <c r="C39">
+        <v>6.0490000000000004</v>
+      </c>
+      <c r="D39">
+        <v>166284</v>
+      </c>
       <c r="E39" s="5">
         <v>434.40431042948961</v>
       </c>
-      <c r="G39" s="8"/>
+      <c r="F39" s="9">
+        <v>12.087</v>
+      </c>
+      <c r="G39" s="12">
+        <v>139903</v>
+      </c>
       <c r="H39" s="6">
         <v>26427.341068609661</v>
       </c>
       <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="5"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
+      <c r="O39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
         <v>66</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="8"/>
+      <c r="C40">
+        <v>6.024</v>
+      </c>
+      <c r="D40">
+        <v>153841</v>
+      </c>
       <c r="E40" s="5">
         <v>402.09858825832714</v>
       </c>
-      <c r="G40" s="8"/>
+      <c r="F40" s="9">
+        <v>12.061999999999999</v>
+      </c>
+      <c r="G40" s="12">
+        <v>132568</v>
+      </c>
       <c r="H40" s="6">
         <v>25057.385894613759</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="7"/>
+      <c r="L40" s="11"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
+      <c r="O40" s="6"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
         <v>70</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="8"/>
+      <c r="C41">
+        <v>6.0839999999999996</v>
+      </c>
+      <c r="D41">
+        <v>4109</v>
+      </c>
       <c r="E41" s="5">
         <v>8.0152860960500014</v>
       </c>
-      <c r="G41" s="8"/>
+      <c r="F41" s="9">
+        <v>12.180999999999999</v>
+      </c>
+      <c r="G41" s="12">
+        <v>27965</v>
+      </c>
       <c r="H41" s="6">
         <v>5330.3340096815</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="7"/>
+      <c r="L41" s="11"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
+      <c r="O41" s="6"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>60</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="8"/>
+      <c r="C42">
+        <v>6.0679999999999996</v>
+      </c>
+      <c r="D42">
+        <v>4141</v>
+      </c>
       <c r="E42" s="5">
         <v>8.1223232960500003</v>
       </c>
-      <c r="G42" s="8"/>
+      <c r="F42" s="9">
+        <v>12.164999999999999</v>
+      </c>
+      <c r="G42" s="12">
+        <v>26519</v>
+      </c>
       <c r="H42" s="6">
         <v>5055.1398353101404</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="7"/>
+      <c r="L42" s="11"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
+      <c r="O42" s="6"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
         <v>78</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="8"/>
+      <c r="C43">
+        <v>6.06</v>
+      </c>
+      <c r="D43">
+        <v>4392</v>
+      </c>
       <c r="E43" s="5">
         <v>8.9577799712000008</v>
       </c>
-      <c r="G43" s="8"/>
+      <c r="F43" s="6">
+        <v>12.144</v>
+      </c>
+      <c r="G43" s="8">
+        <v>25969</v>
+      </c>
       <c r="H43" s="6">
         <v>4950.4492354941403</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="7"/>
+      <c r="L43" s="11"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="9">
+      <c r="C44">
+        <v>6.06</v>
+      </c>
+      <c r="D44" s="8">
+        <v>4392</v>
+      </c>
+      <c r="E44" s="6">
         <v>8.9577799712000008</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9">
+      <c r="F44" s="6">
+        <v>12.144</v>
+      </c>
+      <c r="G44" s="8">
+        <v>25969</v>
+      </c>
+      <c r="H44" s="6">
         <v>4950.4492354941403</v>
       </c>
-      <c r="O44" s="9"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
         <v>52</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="9">
+        <v>6.0449999999999999</v>
+      </c>
+      <c r="D45" s="9">
+        <v>52709</v>
+      </c>
       <c r="E45" s="5">
         <v>138.14122594346711</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="8"/>
+      <c r="F45" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="G45" s="12">
+        <v>17707</v>
+      </c>
       <c r="H45" s="6">
         <v>3376.6222745752602</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="7"/>
+      <c r="L45" s="11"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="5"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
+      <c r="O45" s="5"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
         <v>67</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="9">
+        <v>6.0410000000000004</v>
+      </c>
+      <c r="D46" s="9">
+        <v>52383</v>
+      </c>
       <c r="E46" s="5">
         <v>137.28635797649991</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="8"/>
+      <c r="F46" s="9">
+        <v>12.189</v>
+      </c>
+      <c r="G46" s="12">
+        <v>18325</v>
+      </c>
       <c r="H46" s="6">
         <v>3494.4218005375001</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="7"/>
+      <c r="L46" s="11"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="5"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
+      <c r="O46" s="5"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="9">
+        <v>6.0460000000000003</v>
+      </c>
+      <c r="D47" s="9">
+        <v>49739</v>
+      </c>
       <c r="E47" s="5">
         <v>130.3520622541711</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="8"/>
+      <c r="F47" s="9">
+        <v>12.202</v>
+      </c>
+      <c r="G47" s="12">
+        <v>17469</v>
+      </c>
       <c r="H47" s="6">
         <v>3331.2528014741401</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="7"/>
+      <c r="L47" s="11"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
-      <c r="P47" s="5"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
         <v>54</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="9">
+        <v>6.0469999999999997</v>
+      </c>
+      <c r="D48" s="9">
+        <v>49598</v>
+      </c>
       <c r="E48" s="5">
         <v>129.98222064207638</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="8"/>
+      <c r="F48" s="9">
+        <v>12.208</v>
+      </c>
+      <c r="G48" s="12">
+        <v>16096</v>
+      </c>
       <c r="H48" s="6">
         <v>3069.48453942784</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="7"/>
+      <c r="L48" s="11"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
-      <c r="P48" s="5"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>78</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="C49">
+        <v>6.0279999999999996</v>
+      </c>
+      <c r="D49">
+        <v>51717</v>
+      </c>
       <c r="E49" s="6">
         <v>135.53983004603992</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="8"/>
+      <c r="F49" s="6">
+        <v>12.183999999999999</v>
+      </c>
+      <c r="G49" s="8">
+        <v>17046</v>
+      </c>
       <c r="H49" s="8">
         <v>3250.61259495384</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="7"/>
+      <c r="L49" s="11"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="5"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O49" s="5"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>59</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="C50">
+        <v>6.0270000000000001</v>
+      </c>
+      <c r="D50">
+        <v>51766</v>
+      </c>
       <c r="E50" s="6">
         <v>135.66833200239961</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="8"/>
+      <c r="F50" s="6">
+        <v>12.173</v>
+      </c>
+      <c r="G50" s="8">
+        <v>16580</v>
+      </c>
       <c r="H50" s="8">
         <v>3161.7681845359998</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="7"/>
+      <c r="L50" s="11"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
-      <c r="P50" s="5"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>49</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="C51">
+        <v>6.0609999999999999</v>
+      </c>
+      <c r="D51">
+        <v>2530</v>
+      </c>
       <c r="E51" s="6">
         <v>2.5862578450000004</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="8"/>
+      <c r="F51" s="6">
+        <v>12.189</v>
+      </c>
+      <c r="G51" s="8">
+        <v>32341</v>
+      </c>
       <c r="H51" s="8">
         <v>6162.7342110309401</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="7"/>
+      <c r="L51" s="11"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
-      <c r="P51" s="5"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>70</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="C52">
+        <v>6.077</v>
+      </c>
+      <c r="D52">
+        <v>2289</v>
+      </c>
       <c r="E52" s="6">
         <v>1.7322167580500007</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="8"/>
+      <c r="F52" s="6">
+        <v>12.182</v>
+      </c>
+      <c r="G52" s="8">
+        <v>32646</v>
+      </c>
       <c r="H52" s="8">
         <v>6220.7279210018405</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="7"/>
+      <c r="L52" s="11"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
-      <c r="P52" s="5"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>58</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="C53">
+        <v>6.0369999999999999</v>
+      </c>
+      <c r="D53">
+        <v>2430</v>
+      </c>
       <c r="E53" s="6">
         <v>2.2327010450000007</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="8"/>
+      <c r="F53" s="6">
+        <v>12.157999999999999</v>
+      </c>
+      <c r="G53" s="8">
+        <v>35973</v>
+      </c>
       <c r="H53" s="8">
         <v>6853.1382375864605</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="7"/>
+      <c r="L53" s="11"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>75</v>
       </c>
+      <c r="C54">
+        <v>6.056</v>
+      </c>
+      <c r="D54">
+        <v>1929</v>
+      </c>
       <c r="E54" s="6">
         <v>0.44393267405000003</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="8"/>
+      <c r="F54" s="6">
+        <v>12.146000000000001</v>
+      </c>
+      <c r="G54" s="8">
+        <v>49808</v>
+      </c>
       <c r="H54" s="8">
         <v>9479.0931925913592</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="7"/>
+      <c r="L54" s="11"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="5"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>75</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="C55">
+        <v>6.06</v>
+      </c>
+      <c r="D55">
+        <v>1678</v>
+      </c>
       <c r="E55" s="6">
         <v>-0.46317488780000016</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="8"/>
+      <c r="F55" s="6">
+        <v>12.125</v>
+      </c>
+      <c r="G55" s="8">
+        <v>51131</v>
+      </c>
       <c r="H55" s="8">
         <v>9729.8793948421389</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="7"/>
+      <c r="L55" s="11"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>45</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="C56">
+        <v>6.0620000000000003</v>
+      </c>
+      <c r="D56">
+        <v>2029</v>
+      </c>
       <c r="E56" s="6">
         <v>0.80329606404999954</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="8"/>
+      <c r="F56" s="6">
+        <v>12.148</v>
+      </c>
+      <c r="G56" s="8">
+        <v>52446</v>
+      </c>
       <c r="H56" s="8">
         <v>9979.0927217858389</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="7"/>
+      <c r="L56" s="11"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O56" s="6"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>66</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="C57">
+        <v>6.0439999999999996</v>
+      </c>
+      <c r="D57">
+        <v>194267</v>
+      </c>
       <c r="E57" s="6">
         <v>506.91971922475994</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="8"/>
+      <c r="F57" s="6">
+        <v>12.194000000000001</v>
+      </c>
+      <c r="G57" s="8">
+        <v>22855</v>
+      </c>
       <c r="H57" s="8">
         <v>4357.5245723335001</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="7"/>
+      <c r="L57" s="11"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="5"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O57" s="5"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>63</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>85</v>
       </c>
+      <c r="C58">
+        <v>6.0430000000000001</v>
+      </c>
+      <c r="D58">
+        <v>210189</v>
+      </c>
       <c r="E58" s="6">
         <v>548.09562363933105</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="8"/>
+      <c r="F58" s="6">
+        <v>12.199</v>
+      </c>
+      <c r="G58" s="8">
+        <v>24209</v>
+      </c>
       <c r="H58" s="8">
         <v>4615.3732094269399</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="7"/>
+      <c r="L58" s="11"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="5"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O58" s="5"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>47</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="C59">
+        <v>6.0279999999999996</v>
+      </c>
+      <c r="D59">
+        <v>216508</v>
+      </c>
       <c r="E59" s="6">
         <v>564.42020616966238</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="8"/>
+      <c r="F59" s="6">
+        <v>12.173999999999999</v>
+      </c>
+      <c r="G59" s="8">
+        <v>24432</v>
+      </c>
       <c r="H59" s="8">
         <v>4657.8344381337602</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="7"/>
+      <c r="L59" s="11"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O59" s="6"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>44</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="C60">
+        <v>6.085</v>
+      </c>
+      <c r="D60">
+        <v>1822</v>
+      </c>
       <c r="E60" s="6">
         <v>5.8130312200000311E-2</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="8"/>
+      <c r="F60" s="6">
+        <v>12.195</v>
+      </c>
+      <c r="G60" s="8">
+        <v>28063</v>
+      </c>
       <c r="H60" s="8">
         <v>5348.9823301840597</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="7"/>
+      <c r="L60" s="11"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
-      <c r="P60" s="5"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>77</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>99</v>
       </c>
+      <c r="C61">
+        <v>6.0750000000000002</v>
+      </c>
+      <c r="D61">
+        <v>1832</v>
+      </c>
       <c r="E61" s="6">
         <v>9.4242819199999772E-2</v>
       </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="8"/>
+      <c r="F61" s="6">
+        <v>12.186999999999999</v>
+      </c>
+      <c r="G61" s="8">
+        <v>31290</v>
+      </c>
       <c r="H61" s="8">
         <v>5962.8704177339996</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="7"/>
+      <c r="L61" s="11"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O61" s="6"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>52</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>74</v>
       </c>
+      <c r="C62">
+        <v>6.0650000000000004</v>
+      </c>
+      <c r="D62">
+        <v>1965</v>
+      </c>
       <c r="E62" s="6">
         <v>0.57343701125000024</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="8"/>
+      <c r="F62" s="6">
+        <v>12.192</v>
+      </c>
+      <c r="G62" s="8">
+        <v>29325</v>
+      </c>
       <c r="H62" s="8">
         <v>5589.0991215375007</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="7"/>
+      <c r="L62" s="11"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="5"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O62" s="5"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>72</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="C63">
+        <v>6.0750000000000002</v>
+      </c>
+      <c r="D63">
+        <v>1246</v>
+      </c>
       <c r="E63" s="6">
         <v>-2.0415103021999998</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="8"/>
+      <c r="F63" s="6">
+        <v>12.237</v>
+      </c>
+      <c r="G63" s="8">
+        <v>3966</v>
+      </c>
       <c r="H63" s="8">
         <v>754.18544392344006</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="7"/>
+      <c r="L63" s="11"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="5"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O63" s="5"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>65</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>87</v>
       </c>
+      <c r="C64">
+        <v>6.1239999999999997</v>
+      </c>
+      <c r="D64">
+        <v>1863</v>
+      </c>
       <c r="E64" s="6">
         <v>0.20611793645000009</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="8"/>
+      <c r="F64" s="6">
+        <v>12.260999999999999</v>
+      </c>
+      <c r="G64" s="8">
+        <v>2327</v>
+      </c>
       <c r="H64" s="8">
         <v>440.97635325446004</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="7"/>
+      <c r="L64" s="11"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>43</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="C65">
+        <v>6.0970000000000004</v>
+      </c>
+      <c r="D65">
+        <v>1939</v>
+      </c>
       <c r="E65" s="6">
         <v>0.47992116805000062</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="8"/>
+      <c r="F65" s="6">
+        <v>12.223000000000001</v>
+      </c>
+      <c r="G65" s="8">
+        <v>2933</v>
+      </c>
       <c r="H65" s="8">
         <v>556.79172352886008</v>
       </c>
       <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="5"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L65" s="11"/>
+      <c r="O65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>62</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>84</v>
       </c>
+      <c r="C66">
+        <v>6.0919999999999996</v>
+      </c>
+      <c r="D66">
+        <v>1344</v>
+      </c>
       <c r="E66" s="6">
         <v>-1.6815651711999999</v>
       </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="8"/>
+      <c r="F66" s="6">
+        <v>12.212</v>
+      </c>
+      <c r="G66" s="8">
+        <v>3259</v>
+      </c>
       <c r="H66" s="8">
         <v>619.09010122294012</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="7"/>
+      <c r="L66" s="11"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O66" s="6"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>73</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="C67">
+        <v>6.0709999999999997</v>
+      </c>
+      <c r="D67">
+        <v>1199</v>
+      </c>
       <c r="E67" s="6">
         <v>-2.2145319779499992</v>
       </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="8"/>
+      <c r="F67" s="6">
+        <v>12.214</v>
+      </c>
+      <c r="G67" s="8">
+        <v>3212</v>
+      </c>
       <c r="H67" s="8">
         <v>610.10864649056009</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="7"/>
+      <c r="L67" s="11"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68" s="6">
+      <c r="O67" s="6"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="10">
         <v>40</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="6">
+      <c r="C68" s="6">
+        <v>6.0869999999999997</v>
+      </c>
+      <c r="D68" s="8">
+        <v>1544</v>
+      </c>
+      <c r="E68" s="5">
         <v>-0.95043709119999953</v>
       </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8">
+      <c r="F68" s="9">
+        <v>12.192</v>
+      </c>
+      <c r="G68" s="8">
+        <v>4321</v>
+      </c>
+      <c r="H68" s="6">
         <v>822.0136088733401</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="7"/>
+      <c r="L68" s="11"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>61</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>83</v>
       </c>
+      <c r="C69">
+        <v>6.085</v>
+      </c>
+      <c r="D69">
+        <v>1629</v>
+      </c>
       <c r="E69" s="6">
         <v>-0.64111149594999972</v>
       </c>
-      <c r="F69" s="6"/>
-      <c r="G69" s="8"/>
+      <c r="F69" s="6">
+        <v>12.217000000000001</v>
+      </c>
+      <c r="G69" s="8">
+        <v>3534</v>
+      </c>
       <c r="H69" s="8">
         <v>671.63972632344007</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="7"/>
+      <c r="L69" s="11"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
-      <c r="P69" s="5"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>60</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>82</v>
       </c>
+      <c r="C70">
+        <v>6.0730000000000004</v>
+      </c>
+      <c r="D70">
+        <v>1436</v>
+      </c>
       <c r="E70" s="6">
         <v>-1.3446704631999999</v>
       </c>
-      <c r="F70" s="6"/>
-      <c r="G70" s="8"/>
+      <c r="F70" s="6">
+        <v>12.234</v>
+      </c>
+      <c r="G70" s="8">
+        <v>1978</v>
+      </c>
       <c r="H70" s="8">
         <v>374.27198301016</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="7"/>
+      <c r="L70" s="11"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>64</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>86</v>
       </c>
+      <c r="C71">
+        <v>6.0880000000000001</v>
+      </c>
+      <c r="D71">
+        <v>1498</v>
+      </c>
       <c r="E71" s="6">
         <v>-1.1181860317999996</v>
       </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="8"/>
+      <c r="F71" s="6">
+        <v>12.254</v>
+      </c>
+      <c r="G71" s="8">
+        <v>2294</v>
+      </c>
       <c r="H71" s="8">
         <v>434.66923279063997</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="7"/>
+      <c r="L71" s="11"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
-      <c r="P71" s="5"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A72" s="6">
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
         <v>39</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E72" s="6">
+      <c r="C72" s="6">
+        <v>6.09</v>
+      </c>
+      <c r="D72" s="8">
+        <v>1587</v>
+      </c>
+      <c r="E72" s="5">
         <v>-0.79385007354999981</v>
       </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8">
+      <c r="F72" s="9">
+        <v>12.221</v>
+      </c>
+      <c r="G72" s="8">
+        <v>2563</v>
+      </c>
+      <c r="H72" s="6">
         <v>486.08078856406001</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="7"/>
+      <c r="L72" s="11"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>46</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="C73">
+        <v>6.0510000000000002</v>
+      </c>
+      <c r="D73">
+        <v>122429</v>
+      </c>
       <c r="E73" s="6">
         <v>320.3771618210431</v>
       </c>
-      <c r="F73" s="6"/>
-      <c r="G73" s="8"/>
+      <c r="F73" s="6">
+        <v>12.206</v>
+      </c>
+      <c r="G73" s="8">
+        <v>22857</v>
+      </c>
       <c r="H73" s="8">
         <v>4357.9054857792607</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="7"/>
+      <c r="L73" s="11"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O73" s="6"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>54</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="C74">
+        <v>6.0449999999999999</v>
+      </c>
+      <c r="D74">
+        <v>113358</v>
+      </c>
       <c r="E74" s="6">
         <v>296.73366062777239</v>
       </c>
-      <c r="F74" s="6"/>
-      <c r="G74" s="8"/>
+      <c r="F74" s="6">
+        <v>12.204000000000001</v>
+      </c>
+      <c r="G74" s="8">
+        <v>23848</v>
+      </c>
       <c r="H74" s="8">
         <v>4546.6320972889598</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="7"/>
+      <c r="L74" s="11"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="5"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O74" s="5"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>51</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>73</v>
       </c>
+      <c r="C75">
+        <v>6.0430000000000001</v>
+      </c>
+      <c r="D75">
+        <v>114753</v>
+      </c>
       <c r="E75" s="6">
         <v>300.37101345301193</v>
       </c>
-      <c r="F75" s="6"/>
-      <c r="G75" s="8"/>
+      <c r="F75" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="G75" s="8">
+        <v>20089</v>
+      </c>
       <c r="H75" s="8">
         <v>3830.5967856045399</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="7"/>
+      <c r="L75" s="11"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O75" s="6"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>76</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="C76">
+        <v>6.0460000000000003</v>
+      </c>
+      <c r="D76">
+        <v>23285</v>
+      </c>
       <c r="E76" s="6">
         <v>60.879324080897511</v>
       </c>
-      <c r="F76" s="6"/>
-      <c r="G76" s="8"/>
+      <c r="F76" s="6">
+        <v>12.202999999999999</v>
+      </c>
+      <c r="G76" s="8">
+        <v>14873</v>
+      </c>
       <c r="H76" s="8">
         <v>2836.2627883424598</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="7"/>
+      <c r="L76" s="11"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O76" s="6"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>56</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>78</v>
       </c>
+      <c r="C77">
+        <v>6.0469999999999997</v>
+      </c>
+      <c r="D77">
+        <v>22281</v>
+      </c>
       <c r="E77" s="6">
         <v>58.239315046015108</v>
       </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="8"/>
+      <c r="F77" s="6">
+        <v>12.212999999999999</v>
+      </c>
+      <c r="G77" s="8">
+        <v>15176</v>
+      </c>
       <c r="H77" s="8">
         <v>2894.0483435302399</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="7"/>
+      <c r="L77" s="11"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
-      <c r="P77" s="5"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>69</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>91</v>
       </c>
+      <c r="C78">
+        <v>6.0259999999999998</v>
+      </c>
+      <c r="D78">
+        <v>24221</v>
+      </c>
       <c r="E78" s="6">
         <v>63.340308187923107</v>
       </c>
-      <c r="F78" s="6"/>
-      <c r="G78" s="8"/>
+      <c r="F78" s="6">
+        <v>12.163</v>
+      </c>
+      <c r="G78" s="8">
+        <v>15077</v>
+      </c>
       <c r="H78" s="8">
         <v>2875.1682429944599</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="7"/>
+      <c r="L78" s="11"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="5"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O78" s="5"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>48</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="C79">
+        <v>6.0629999999999997</v>
+      </c>
+      <c r="D79">
+        <v>3844</v>
+      </c>
       <c r="E79" s="6">
         <v>7.124323328800001</v>
       </c>
-      <c r="F79" s="6"/>
-      <c r="G79" s="8"/>
+      <c r="F79" s="6">
+        <v>12.175000000000001</v>
+      </c>
+      <c r="G79" s="8">
+        <v>41213</v>
+      </c>
       <c r="H79" s="8">
         <v>7848.4498051400606</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="7"/>
+      <c r="L79" s="11"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O79" s="6"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>71</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="C80">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="D80">
+        <v>3769</v>
+      </c>
       <c r="E80" s="6">
         <v>6.8706863300500007</v>
       </c>
-      <c r="F80" s="6"/>
-      <c r="G80" s="8"/>
+      <c r="F80" s="6">
+        <v>12.146000000000001</v>
+      </c>
+      <c r="G80" s="8">
+        <v>46390</v>
+      </c>
       <c r="H80" s="8">
         <v>8830.9179580540003</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="7"/>
+      <c r="L80" s="11"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="5"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O80" s="5"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>42</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="C81">
+        <v>6.0650000000000004</v>
+      </c>
+      <c r="D81">
+        <v>3662</v>
+      </c>
       <c r="E81" s="6">
         <v>6.5077023602000015</v>
       </c>
-      <c r="F81" s="6"/>
-      <c r="G81" s="8"/>
+      <c r="F81" s="6">
+        <v>12.179</v>
+      </c>
+      <c r="G81" s="8">
+        <v>45020</v>
+      </c>
       <c r="H81" s="8">
         <v>8571.0102254960002</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="7"/>
+      <c r="L81" s="11"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="5"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O81" s="5"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>74</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="C82">
+        <v>6.0439999999999996</v>
+      </c>
+      <c r="D82">
+        <v>110478</v>
+      </c>
       <c r="E82" s="6">
         <v>289.22279853228446</v>
       </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="8"/>
+      <c r="F82" s="6">
+        <v>12.178000000000001</v>
+      </c>
+      <c r="G82" s="8">
+        <v>60896</v>
+      </c>
       <c r="H82" s="8">
         <v>11579.159871011841</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="7"/>
+      <c r="L82" s="11"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="5"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O82" s="5"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>55</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="C83">
+        <v>6.024</v>
+      </c>
+      <c r="D83">
+        <v>112949</v>
+      </c>
       <c r="E83" s="6">
         <v>295.66713607893917</v>
       </c>
-      <c r="F83" s="6"/>
-      <c r="G83" s="8"/>
+      <c r="F83" s="6">
+        <v>12.129</v>
+      </c>
+      <c r="G83" s="8">
+        <v>63854</v>
+      </c>
       <c r="H83" s="8">
         <v>12138.729360281839</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="7"/>
+      <c r="L83" s="11"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="5"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O83" s="5"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>68</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="C84">
+        <v>6.0460000000000003</v>
+      </c>
+      <c r="D84">
+        <v>104329</v>
+      </c>
       <c r="E84" s="6">
         <v>273.17987408486317</v>
       </c>
-      <c r="F84" s="6"/>
-      <c r="G84" s="8"/>
+      <c r="F84" s="6">
+        <v>12.166</v>
+      </c>
+      <c r="G84" s="8">
+        <v>53511</v>
+      </c>
       <c r="H84" s="8">
         <v>10180.88587501254</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="7"/>
+      <c r="L84" s="11"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
-      <c r="P84" s="5"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" s="6">
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" s="10">
         <v>41</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E85" s="6">
+      <c r="C85" s="6">
+        <v>6.04</v>
+      </c>
+      <c r="D85" s="8">
+        <v>6319</v>
+      </c>
+      <c r="E85" s="5">
         <v>15.12860735005</v>
       </c>
-      <c r="F85" s="6"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8">
+      <c r="F85" s="9">
+        <v>12.157</v>
+      </c>
+      <c r="G85" s="8">
+        <v>37871</v>
+      </c>
+      <c r="H85" s="6">
         <v>7213.7569024573395</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="7"/>
+      <c r="L85" s="11"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>67</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D86" s="9"/>
+      <c r="C86">
+        <v>6.0359999999999996</v>
+      </c>
+      <c r="D86" s="9">
+        <v>6485</v>
+      </c>
       <c r="E86" s="6">
         <v>15.640054711250002</v>
       </c>
-      <c r="F86" s="6"/>
-      <c r="G86" s="8"/>
+      <c r="F86" s="6">
+        <v>12.138999999999999</v>
+      </c>
+      <c r="G86" s="8">
+        <v>41326</v>
+      </c>
       <c r="H86" s="8">
         <v>7869.9037496322399</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="7"/>
+      <c r="L86" s="11"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
       <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>57</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D87" s="9"/>
+      <c r="C87">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="D87" s="9">
+        <v>6531</v>
+      </c>
       <c r="E87" s="6">
         <v>15.781215960049998</v>
       </c>
-      <c r="F87" s="6"/>
-      <c r="G87" s="8"/>
+      <c r="F87" s="6">
+        <v>12.151</v>
+      </c>
+      <c r="G87" s="8">
+        <v>41338</v>
+      </c>
       <c r="H87" s="8">
         <v>7872.1820202325598</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="7"/>
+      <c r="L87" s="11"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
-      <c r="P87" s="5"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>50</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D88" s="9"/>
+      <c r="C88">
+        <v>6.03</v>
+      </c>
+      <c r="D88" s="9">
+        <v>89579</v>
+      </c>
       <c r="E88" s="6">
         <v>234.65941537356312</v>
       </c>
-      <c r="F88" s="6"/>
-      <c r="G88" s="8"/>
+      <c r="F88" s="6">
+        <v>12.198</v>
+      </c>
+      <c r="G88" s="8">
+        <v>12080</v>
+      </c>
       <c r="H88" s="8">
         <v>2303.465236736</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="7"/>
+      <c r="L88" s="11"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
-      <c r="P88" s="5"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B89" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D89" s="8"/>
+      <c r="C89">
+        <v>6.0209999999999999</v>
+      </c>
+      <c r="D89" s="8">
+        <v>95491</v>
+      </c>
       <c r="E89" s="6">
         <v>250.10525459230712</v>
       </c>
-      <c r="F89" s="6"/>
-      <c r="G89" s="8"/>
+      <c r="F89" s="6">
+        <v>12.166</v>
+      </c>
+      <c r="G89" s="8">
+        <v>15066</v>
+      </c>
       <c r="H89" s="6">
         <v>2873.0704343714401</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="7"/>
+      <c r="L89" s="11"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O89" s="6"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B90" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D90" s="8"/>
+      <c r="C90">
+        <v>6.0369999999999999</v>
+      </c>
+      <c r="D90" s="8">
+        <v>91986</v>
+      </c>
       <c r="E90" s="6">
         <v>240.94902381470362</v>
       </c>
-      <c r="F90" s="6"/>
-      <c r="G90" s="8"/>
+      <c r="F90" s="6">
+        <v>12.195</v>
+      </c>
+      <c r="G90" s="8">
+        <v>13586</v>
+      </c>
       <c r="H90" s="6">
         <v>2590.7839390210397</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="7"/>
+      <c r="L90" s="11"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="5"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O90" s="5"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D91" s="8"/>
+      <c r="C91">
+        <v>6.0640000000000001</v>
+      </c>
+      <c r="D91" s="8">
+        <v>1884</v>
+      </c>
       <c r="E91" s="6">
         <v>0.28184102480000028</v>
       </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="8"/>
+      <c r="F91" s="6">
+        <v>12.180999999999999</v>
+      </c>
+      <c r="G91" s="8">
+        <v>30542</v>
+      </c>
       <c r="H91" s="6">
         <v>5820.6048481973594</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="7"/>
+      <c r="L91" s="11"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B92" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D92" s="6"/>
+      <c r="C92">
+        <v>6.0519999999999996</v>
+      </c>
+      <c r="D92" s="8">
+        <v>2251</v>
+      </c>
       <c r="E92" s="6">
         <v>1.5969402920500002</v>
       </c>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
+      <c r="F92" s="6">
+        <v>12.145</v>
+      </c>
+      <c r="G92" s="8">
+        <v>30694</v>
+      </c>
       <c r="H92" s="6">
         <v>5849.5159021986401</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
+      <c r="L92" s="7"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
+      <c r="O92" s="5"/>
       <c r="P92" s="5"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D93" s="8"/>
+      <c r="C93">
+        <v>6.0469999999999997</v>
+      </c>
+      <c r="D93" s="8">
+        <v>2486</v>
+      </c>
       <c r="E93" s="6">
         <v>2.4308356417999999</v>
       </c>
-      <c r="F93" s="6"/>
-      <c r="G93" s="8"/>
+      <c r="F93" s="6">
+        <v>12.151</v>
+      </c>
+      <c r="G93" s="8">
+        <v>34267</v>
+      </c>
       <c r="H93" s="6">
         <v>6528.8994642808602</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="7"/>
+      <c r="L93" s="11"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O93" s="6"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B94" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D94" s="8"/>
+      <c r="C94">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="D94" s="8">
+        <v>12460</v>
+      </c>
       <c r="E94" s="6">
         <v>32.402230081560006</v>
       </c>
-      <c r="F94" s="6"/>
-      <c r="G94" s="8"/>
+      <c r="F94" s="6">
+        <v>12.096</v>
+      </c>
+      <c r="G94" s="8">
+        <v>107470</v>
+      </c>
       <c r="H94" s="6">
         <v>20356.606237365999</v>
       </c>
@@ -3680,41 +4522,61 @@
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
-      <c r="O94" s="5"/>
+      <c r="O94" s="6"/>
       <c r="P94" s="5"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B95" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D95" s="8"/>
+      <c r="C95">
+        <v>6.0209999999999999</v>
+      </c>
+      <c r="D95" s="8">
+        <v>13273</v>
+      </c>
       <c r="E95" s="6">
         <v>34.541955741243903</v>
       </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="8"/>
+      <c r="F95" s="6">
+        <v>12.061</v>
+      </c>
+      <c r="G95" s="8">
+        <v>119597</v>
+      </c>
       <c r="H95" s="6">
         <v>22630.514426429661</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="7"/>
+      <c r="L95" s="11"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
       <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D96" s="6"/>
+      <c r="C96">
+        <v>6.04</v>
+      </c>
+      <c r="D96" s="6">
+        <v>12249</v>
+      </c>
       <c r="E96" s="6">
         <v>31.846875405679103</v>
       </c>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
+      <c r="F96" s="6">
+        <v>12.101000000000001</v>
+      </c>
+      <c r="G96" s="6">
+        <v>109862</v>
+      </c>
       <c r="H96" s="6">
         <v>20805.503743944562</v>
       </c>
@@ -3724,107 +4586,154 @@
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
+      <c r="O96" s="5"/>
       <c r="P96" s="5"/>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B97" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D97" s="8"/>
+      <c r="C97">
+        <v>6.04</v>
+      </c>
+      <c r="D97" s="6">
+        <v>50686</v>
+      </c>
       <c r="E97" s="6">
         <v>132.8359093649436</v>
       </c>
-      <c r="F97" s="6"/>
-      <c r="G97" s="8"/>
+      <c r="F97" s="6">
+        <v>12.193</v>
+      </c>
+      <c r="G97" s="6">
+        <v>18393</v>
+      </c>
       <c r="H97" s="6">
         <v>3507.3828021792601</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="7"/>
+      <c r="L97" s="11"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
       <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B98" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D98" s="8"/>
+      <c r="C98">
+        <v>6.0190000000000001</v>
+      </c>
+      <c r="D98" s="8">
+        <v>48690</v>
+      </c>
       <c r="E98" s="6">
         <v>127.60043042351001</v>
       </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="8"/>
+      <c r="F98" s="6">
+        <v>12.173999999999999</v>
+      </c>
+      <c r="G98" s="8">
+        <v>17357</v>
+      </c>
       <c r="H98" s="6">
         <v>3309.90182379926</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="7"/>
+      <c r="L98" s="11"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
       <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D99" s="8"/>
+      <c r="C99">
+        <v>6.0389999999999997</v>
+      </c>
+      <c r="D99" s="8">
+        <v>48731</v>
+      </c>
       <c r="E99" s="6">
         <v>127.70798251735511</v>
       </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="8"/>
+      <c r="F99" s="6">
+        <v>12.192</v>
+      </c>
+      <c r="G99" s="8">
+        <v>16527</v>
+      </c>
       <c r="H99" s="6">
         <v>3151.6631154864604</v>
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="7"/>
+      <c r="L99" s="11"/>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
       <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D100" s="8"/>
+      <c r="C100">
+        <v>6.0359999999999996</v>
+      </c>
+      <c r="D100" s="8">
+        <v>144574</v>
+      </c>
       <c r="E100" s="6">
         <v>378.01438154555166</v>
       </c>
-      <c r="F100" s="6"/>
-      <c r="G100" s="8"/>
+      <c r="F100" s="6">
+        <v>12.186999999999999</v>
+      </c>
+      <c r="G100" s="8">
+        <v>17581</v>
+      </c>
       <c r="H100" s="6">
         <v>3352.6033712181397</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
+      <c r="L100" s="11"/>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
       <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B101" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D101" s="6"/>
+      <c r="C101">
+        <v>6.0389999999999997</v>
+      </c>
+      <c r="D101" s="8">
+        <v>142578</v>
+      </c>
       <c r="E101" s="6">
         <v>372.82421603244444</v>
       </c>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
+      <c r="F101" s="6">
+        <v>12.195</v>
+      </c>
+      <c r="G101" s="8">
+        <v>16789</v>
+      </c>
       <c r="H101" s="6">
         <v>3201.61558532854</v>
       </c>
@@ -3834,63 +4743,92 @@
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
+      <c r="O101" s="5"/>
       <c r="P101" s="5"/>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B102" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D102" s="8"/>
+      <c r="C102">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="D102" s="6">
+        <v>145435</v>
+      </c>
       <c r="E102" s="6">
         <v>380.25292808769751</v>
       </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="8"/>
+      <c r="F102" s="6">
+        <v>12.195</v>
+      </c>
+      <c r="G102" s="6">
+        <v>16907</v>
+      </c>
       <c r="H102" s="6">
         <v>3224.11253348726</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="7"/>
+      <c r="L102" s="11"/>
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O102" s="6"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B103" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D103" s="8"/>
+      <c r="C103">
+        <v>6.0730000000000004</v>
+      </c>
+      <c r="D103" s="8">
+        <v>1808</v>
+      </c>
       <c r="E103" s="6">
         <v>7.5533312000004571E-3</v>
       </c>
-      <c r="F103" s="6"/>
-      <c r="G103" s="8"/>
+      <c r="F103" s="6">
+        <v>12.182</v>
+      </c>
+      <c r="G103" s="8">
+        <v>22753</v>
+      </c>
       <c r="H103" s="6">
         <v>4338.0978141136593</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="7"/>
+      <c r="L103" s="11"/>
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
       <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B104" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D104" s="6"/>
+      <c r="C104">
+        <v>6.0510000000000002</v>
+      </c>
+      <c r="D104" s="8">
+        <v>1868</v>
+      </c>
       <c r="E104" s="6">
         <v>0.22415187920000079</v>
       </c>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+      <c r="F104" s="6">
+        <v>12.157999999999999</v>
+      </c>
+      <c r="G104" s="8">
+        <v>26615</v>
+      </c>
       <c r="H104" s="6">
         <v>5073.4120952615003</v>
       </c>
@@ -3900,415 +4838,593 @@
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
+      <c r="O104" s="5"/>
       <c r="P104" s="5"/>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B105" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D105" s="8"/>
+      <c r="C105">
+        <v>6.0759999999999996</v>
+      </c>
+      <c r="D105" s="8">
+        <v>2144</v>
+      </c>
       <c r="E105" s="6">
         <v>1.2151311488000003</v>
       </c>
-      <c r="F105" s="6"/>
-      <c r="G105" s="8"/>
+      <c r="F105" s="6">
+        <v>12.154999999999999</v>
+      </c>
+      <c r="G105" s="8">
+        <v>24212</v>
+      </c>
       <c r="H105" s="6">
         <v>4615.9444474505608</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="7"/>
+      <c r="L105" s="11"/>
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
       <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A106" s="6"/>
       <c r="B106" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D106" s="8"/>
+      <c r="C106">
+        <v>6.0570000000000004</v>
+      </c>
+      <c r="D106" s="9">
+        <v>3541</v>
+      </c>
       <c r="E106" s="6">
         <v>6.0956264360500008</v>
       </c>
-      <c r="F106" s="6"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="6">
+      <c r="F106" s="6">
+        <v>12.163</v>
+      </c>
+      <c r="G106" s="8">
+        <v>46493</v>
+      </c>
+      <c r="H106" s="8">
         <v>8850.45599946326</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="7"/>
+      <c r="L106" s="11"/>
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O106" s="6"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B107" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D107" s="8"/>
+      <c r="C107">
+        <v>6.0579999999999998</v>
+      </c>
+      <c r="D107" s="8">
+        <v>3080</v>
+      </c>
       <c r="E107" s="6">
         <v>4.5101031200000001</v>
       </c>
-      <c r="F107" s="6"/>
-      <c r="G107" s="8"/>
+      <c r="F107" s="6">
+        <v>12.16</v>
+      </c>
+      <c r="G107" s="8">
+        <v>45555</v>
+      </c>
       <c r="H107" s="6">
         <v>8672.5143045134992</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
+      <c r="L107" s="11"/>
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
       <c r="O107" s="5"/>
-      <c r="P107" s="5"/>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B108" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D108" s="8"/>
+      <c r="C108">
+        <v>6.0460000000000003</v>
+      </c>
+      <c r="D108" s="8">
+        <v>3273</v>
+      </c>
       <c r="E108" s="6">
         <v>5.1768879444499998</v>
       </c>
-      <c r="F108" s="6"/>
-      <c r="G108" s="8"/>
+      <c r="F108" s="6">
+        <v>12.145</v>
+      </c>
+      <c r="G108" s="8">
+        <v>51223</v>
+      </c>
       <c r="H108" s="6">
         <v>9747.3166814464603</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="7"/>
+      <c r="L108" s="11"/>
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
-      <c r="O108" s="5"/>
-      <c r="P108" s="5"/>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O108" s="6"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D109" s="8"/>
+      <c r="C109">
+        <v>6.0419999999999998</v>
+      </c>
+      <c r="D109" s="8">
+        <v>4543</v>
+      </c>
       <c r="E109" s="6">
         <v>9.456867700450001</v>
       </c>
-      <c r="F109" s="6"/>
-      <c r="G109" s="8"/>
+      <c r="F109" s="6">
+        <v>12.125999999999999</v>
+      </c>
+      <c r="G109" s="8">
+        <v>81088</v>
+      </c>
       <c r="H109" s="6">
         <v>15393.25381152256</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="7"/>
+      <c r="L109" s="11"/>
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
       <c r="O109" s="5"/>
-      <c r="P109" s="5"/>
-    </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B110" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D110" s="8"/>
+      <c r="C110">
+        <v>6.0350000000000001</v>
+      </c>
+      <c r="D110" s="8">
+        <v>4878</v>
+      </c>
       <c r="E110" s="6">
         <v>10.554680472200001</v>
       </c>
-      <c r="F110" s="6"/>
-      <c r="G110" s="8"/>
+      <c r="F110" s="6">
+        <v>12.095000000000001</v>
+      </c>
+      <c r="G110" s="8">
+        <v>85555</v>
+      </c>
       <c r="H110" s="6">
         <v>16235.2403605135</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="7"/>
+      <c r="L110" s="11"/>
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
       <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B111" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D111" s="8"/>
+      <c r="C111">
+        <v>6.05</v>
+      </c>
+      <c r="D111" s="6">
+        <v>4782</v>
+      </c>
       <c r="E111" s="6">
         <v>10.2414129842</v>
       </c>
-      <c r="F111" s="6"/>
-      <c r="G111" s="8"/>
+      <c r="F111" s="6">
+        <v>12.117000000000001</v>
+      </c>
+      <c r="G111" s="6">
+        <v>83716</v>
+      </c>
       <c r="H111" s="6">
         <v>15888.685125653439</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="7"/>
+      <c r="L111" s="11"/>
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
       <c r="O111" s="5"/>
-      <c r="P111" s="5"/>
-    </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R111" s="9"/>
+      <c r="S111" s="9"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B112" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D112" s="8"/>
+      <c r="C112">
+        <v>6.0389999999999997</v>
+      </c>
+      <c r="D112" s="8">
+        <v>15496</v>
+      </c>
       <c r="E112" s="6">
         <v>40.391828764665604</v>
       </c>
-      <c r="F112" s="6"/>
-      <c r="G112" s="8"/>
+      <c r="F112" s="6">
+        <v>12.194000000000001</v>
+      </c>
+      <c r="G112" s="8">
+        <v>15333</v>
+      </c>
       <c r="H112" s="6">
         <v>2923.9888595448601</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="7"/>
+      <c r="L112" s="11"/>
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
-      <c r="O112" s="5"/>
-      <c r="P112" s="5"/>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O112" s="6"/>
+      <c r="R112" s="9"/>
+      <c r="S112" s="9"/>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B113" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D113" s="6"/>
+      <c r="C113">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="D113" s="8">
+        <v>15516</v>
+      </c>
       <c r="E113" s="6">
         <v>40.444453777649606</v>
       </c>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
+      <c r="F113" s="6">
+        <v>12.186999999999999</v>
+      </c>
+      <c r="G113" s="8">
+        <v>15833</v>
+      </c>
       <c r="H113" s="6">
         <v>3019.33547996486</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
+      <c r="L113" s="7"/>
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
+      <c r="O113" s="5"/>
       <c r="P113" s="5"/>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R113" s="9"/>
+      <c r="S113" s="9"/>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B114" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D114" s="8"/>
+      <c r="C114">
+        <v>6.0419999999999998</v>
+      </c>
+      <c r="D114" s="8">
+        <v>17374</v>
+      </c>
       <c r="E114" s="6">
         <v>45.3328956245916</v>
       </c>
-      <c r="F114" s="6"/>
-      <c r="G114" s="8"/>
+      <c r="F114" s="6">
+        <v>12.196999999999999</v>
+      </c>
+      <c r="G114" s="8">
+        <v>17220</v>
+      </c>
       <c r="H114" s="6">
         <v>3283.7844482159999</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="7"/>
+      <c r="L114" s="11"/>
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
       <c r="O114" s="6"/>
-      <c r="P114" s="5"/>
-    </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B115" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D115" s="8"/>
+      <c r="C115">
+        <v>6.0430000000000001</v>
+      </c>
+      <c r="D115" s="6">
+        <v>4858</v>
+      </c>
       <c r="E115" s="6">
         <v>10.489504496199999</v>
       </c>
-      <c r="F115" s="6"/>
-      <c r="G115" s="8"/>
+      <c r="F115" s="6">
+        <v>12.206</v>
+      </c>
+      <c r="G115" s="6">
+        <v>6386</v>
+      </c>
       <c r="H115" s="6">
         <v>1216.4821010050402</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
+      <c r="L115" s="11"/>
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
       <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
-    </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B116" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D116" s="8"/>
+      <c r="C116">
+        <v>6.048</v>
+      </c>
+      <c r="D116" s="8">
+        <v>5137</v>
+      </c>
       <c r="E116" s="6">
         <v>11.39452183645</v>
       </c>
-      <c r="F116" s="6"/>
-      <c r="G116" s="8"/>
+      <c r="F116" s="6">
+        <v>12.204000000000001</v>
+      </c>
+      <c r="G116" s="8">
+        <v>6138</v>
+      </c>
       <c r="H116" s="6">
         <v>1169.1150037845603</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
-      <c r="L116" s="7"/>
+      <c r="L116" s="11"/>
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O116" s="6"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B117" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D117" s="8"/>
+      <c r="C117">
+        <v>6.024</v>
+      </c>
+      <c r="D117" s="8">
+        <v>5062</v>
+      </c>
       <c r="E117" s="6">
         <v>11.152124240199999</v>
       </c>
-      <c r="F117" s="6"/>
-      <c r="G117" s="8"/>
+      <c r="F117" s="6">
+        <v>12.167</v>
+      </c>
+      <c r="G117" s="8">
+        <v>4045</v>
+      </c>
       <c r="H117" s="6">
         <v>769.27995347350009</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
+      <c r="L117" s="11"/>
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
       <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-    </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D118" s="8"/>
+      <c r="C118">
+        <v>6.02</v>
+      </c>
+      <c r="D118" s="8">
+        <v>44716</v>
+      </c>
       <c r="E118" s="6">
         <v>117.1738179526896</v>
       </c>
-      <c r="F118" s="6"/>
-      <c r="G118" s="8"/>
+      <c r="F118" s="6">
+        <v>12.14</v>
+      </c>
+      <c r="G118" s="8">
+        <v>38058</v>
+      </c>
       <c r="H118" s="6">
         <v>7249.2804312213602</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
+      <c r="L118" s="7"/>
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
-      <c r="O118" s="5"/>
+      <c r="O118" s="6"/>
       <c r="P118" s="5"/>
-    </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B119" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D119" s="8"/>
+      <c r="C119">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="D119" s="8">
+        <v>43562</v>
+      </c>
       <c r="E119" s="6">
         <v>114.1453443756604</v>
       </c>
-      <c r="F119" s="6"/>
-      <c r="G119" s="8"/>
+      <c r="F119" s="6">
+        <v>12.173999999999999</v>
+      </c>
+      <c r="G119" s="8">
+        <v>31302</v>
+      </c>
       <c r="H119" s="6">
         <v>5965.1526047829593</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
+      <c r="L119" s="11"/>
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
       <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-    </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R119" s="9"/>
+      <c r="S119" s="9"/>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B120" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D120" s="8"/>
+      <c r="C120">
+        <v>6.0389999999999997</v>
+      </c>
+      <c r="D120" s="8">
+        <v>44464</v>
+      </c>
       <c r="E120" s="6">
         <v>116.51251498191361</v>
       </c>
-      <c r="F120" s="6"/>
-      <c r="G120" s="8"/>
+      <c r="F120" s="6">
+        <v>12.170999999999999</v>
+      </c>
+      <c r="G120" s="8">
+        <v>32106</v>
+      </c>
       <c r="H120" s="6">
         <v>6118.0484694626393</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="7"/>
+      <c r="L120" s="11"/>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
       <c r="O120" s="5"/>
-      <c r="P120" s="5"/>
-    </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B121" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D121" s="8"/>
+      <c r="C121">
+        <v>6.0419999999999998</v>
+      </c>
+      <c r="D121" s="8">
+        <v>31238</v>
+      </c>
       <c r="E121" s="6">
         <v>81.783054251340403</v>
       </c>
-      <c r="F121" s="6"/>
-      <c r="G121" s="8"/>
+      <c r="F121" s="6">
+        <v>12.177</v>
+      </c>
+      <c r="G121" s="8">
+        <v>47464</v>
+      </c>
       <c r="H121" s="6">
         <v>9034.6277631270405</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="7"/>
+      <c r="L121" s="11"/>
       <c r="M121" s="6"/>
       <c r="N121" s="6"/>
       <c r="O121" s="5"/>
-      <c r="P121" s="5"/>
-    </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R121" s="9"/>
+      <c r="S121" s="9"/>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B122" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D122" s="8"/>
+      <c r="C122">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="D122" s="8">
+        <v>27922</v>
+      </c>
       <c r="E122" s="6">
         <v>73.0691117556444</v>
       </c>
-      <c r="F122" s="6"/>
-      <c r="G122" s="8"/>
+      <c r="F122" s="6">
+        <v>12.163</v>
+      </c>
+      <c r="G122" s="8">
+        <v>42125</v>
+      </c>
       <c r="H122" s="6">
         <v>8021.5883759375001</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
+      <c r="L122" s="11"/>
       <c r="M122" s="6"/>
       <c r="N122" s="6"/>
       <c r="O122" s="5"/>
-      <c r="P122" s="5"/>
-    </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B123" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D123" s="6"/>
+      <c r="C123">
+        <v>6.0209999999999999</v>
+      </c>
+      <c r="D123" s="8">
+        <v>28901</v>
+      </c>
       <c r="E123" s="6">
         <v>75.642051122859101</v>
       </c>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
+      <c r="F123" s="6">
+        <v>12.162000000000001</v>
+      </c>
+      <c r="G123" s="8">
+        <v>49185</v>
+      </c>
       <c r="H123" s="6">
         <v>9360.9783897015004</v>
       </c>
@@ -4318,100 +5434,333 @@
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
-      <c r="O123" s="6"/>
+      <c r="O123" s="5"/>
       <c r="P123" s="5"/>
-    </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R123" s="9"/>
+      <c r="S123" s="9"/>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B124" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D124" s="8"/>
+      <c r="C124">
+        <v>6.0529999999999999</v>
+      </c>
+      <c r="D124" s="8">
+        <v>3356</v>
+      </c>
       <c r="E124" s="6">
         <v>5.4623124488000006</v>
       </c>
-      <c r="F124" s="6"/>
-      <c r="G124" s="8"/>
+      <c r="F124" s="6">
+        <v>12.215</v>
+      </c>
+      <c r="G124" s="8">
+        <v>12326</v>
+      </c>
       <c r="H124" s="6">
         <v>2350.40281371224</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="7"/>
+      <c r="L124" s="11"/>
       <c r="M124" s="6"/>
       <c r="N124" s="6"/>
       <c r="O124" s="6"/>
-      <c r="P124" s="5"/>
-    </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R124" s="9"/>
+      <c r="S124" s="9"/>
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B125" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D125" s="8"/>
+      <c r="C125">
+        <v>6.0490000000000004</v>
+      </c>
+      <c r="D125" s="6">
+        <v>2805</v>
+      </c>
       <c r="E125" s="6">
         <v>3.5525629512500014</v>
       </c>
-      <c r="F125" s="6"/>
-      <c r="G125" s="8"/>
+      <c r="F125" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="G125" s="6">
+        <v>10619</v>
+      </c>
       <c r="H125" s="6">
         <v>2024.6612710021402</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="7"/>
+      <c r="L125" s="11"/>
       <c r="M125" s="6"/>
       <c r="N125" s="6"/>
       <c r="O125" s="5"/>
-      <c r="P125" s="5"/>
-    </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B126" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="8"/>
+      <c r="C126">
+        <v>6.0579999999999998</v>
+      </c>
+      <c r="D126" s="8">
+        <v>2750</v>
+      </c>
       <c r="E126" s="6">
         <v>3.3600031249999986</v>
       </c>
-      <c r="F126" s="6"/>
-      <c r="G126" s="8"/>
+      <c r="F126" s="6">
+        <v>12.196</v>
+      </c>
+      <c r="G126" s="8">
+        <v>10395</v>
+      </c>
       <c r="H126" s="6">
         <v>1981.9090090335001</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-      <c r="L126" s="7"/>
+      <c r="L126" s="11"/>
       <c r="M126" s="6"/>
       <c r="N126" s="6"/>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-    </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O126" s="6"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B127" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D127" s="8"/>
+      <c r="C127">
+        <v>6.1219999999999999</v>
+      </c>
+      <c r="D127" s="8">
+        <v>1674</v>
+      </c>
       <c r="E127" s="6">
         <v>-0.47768989419999919</v>
       </c>
-      <c r="F127" s="6"/>
-      <c r="G127" s="8"/>
+      <c r="F127" s="6">
+        <v>12.289</v>
+      </c>
+      <c r="G127" s="8">
+        <v>2536</v>
+      </c>
       <c r="H127" s="6">
         <v>480.92062712704006</v>
       </c>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="7"/>
+      <c r="L127" s="11"/>
       <c r="M127" s="6"/>
       <c r="N127" s="6"/>
-      <c r="O127" s="6"/>
-      <c r="P127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="9"/>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="9"/>
+    </row>
+    <row r="129" spans="10:19" x14ac:dyDescent="0.3">
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="5"/>
+      <c r="R129" s="9"/>
+      <c r="S129" s="9"/>
+    </row>
+    <row r="130" spans="10:19" x14ac:dyDescent="0.3">
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="5"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="9"/>
+    </row>
+    <row r="131" spans="10:19" x14ac:dyDescent="0.3">
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="9"/>
+    </row>
+    <row r="132" spans="10:19" x14ac:dyDescent="0.3">
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+    </row>
+    <row r="133" spans="10:19" x14ac:dyDescent="0.3">
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="5"/>
+      <c r="R133" s="9">
+        <v>20</v>
+      </c>
+      <c r="S133" s="9">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S127">
-    <sortCondition ref="B2:B127"/>
+  <autoFilter ref="A1:S127" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="dd-2102-001"/>
+        <filter val="dd-2102-002"/>
+        <filter val="dd-2102-003"/>
+        <filter val="dd-2102-004"/>
+        <filter val="dd-2102-005"/>
+        <filter val="dd-2102-006"/>
+        <filter val="dd-2102-007"/>
+        <filter val="dd-2102-008"/>
+        <filter val="dd-2102-009"/>
+        <filter val="dd-2102-010"/>
+        <filter val="dd-2102-011"/>
+        <filter val="dd-2102-012"/>
+        <filter val="dd-2102-013"/>
+        <filter val="dd-2102-014"/>
+        <filter val="dd-2102-015"/>
+        <filter val="dd-2102-016"/>
+        <filter val="dd-2102-017"/>
+        <filter val="dd-2102-018"/>
+        <filter val="dd-2102-019"/>
+        <filter val="dd-2102-020"/>
+        <filter val="dd-2102-021"/>
+        <filter val="dd-2102-022"/>
+        <filter val="dd-2102-023"/>
+        <filter val="dd-2102-024"/>
+        <filter val="dd-2102-025"/>
+        <filter val="dd-2102-026"/>
+        <filter val="dd-2102-027"/>
+        <filter val="dd-2102-028"/>
+        <filter val="dd-2102-029"/>
+        <filter val="dd-2102-030"/>
+        <filter val="dd-2102-031"/>
+        <filter val="dd-2102-032"/>
+        <filter val="dd-2102-033"/>
+        <filter val="dd-2102-034"/>
+        <filter val="dd-2102-035"/>
+        <filter val="dd-2102-036"/>
+        <filter val="dd-2102-037"/>
+        <filter val="dd-2102-038"/>
+        <filter val="dd-2102-039"/>
+        <filter val="dd-2102-040"/>
+        <filter val="dd-2102-041"/>
+        <filter val="dd-2102-042"/>
+        <filter val="dd-2102-043"/>
+        <filter val="dd-2102-044"/>
+        <filter val="dd-2102-045"/>
+        <filter val="dd-2102-046"/>
+        <filter val="dd-2102-047"/>
+        <filter val="dd-2102-048"/>
+        <filter val="dd-2102-049"/>
+        <filter val="dd-2102-050"/>
+        <filter val="dd-2102-051"/>
+        <filter val="dd-2102-052"/>
+        <filter val="dd-2102-053"/>
+        <filter val="dd-2102-054"/>
+        <filter val="dd-2102-055"/>
+        <filter val="dd-2102-056"/>
+        <filter val="dd-2102-057"/>
+        <filter val="dd-2102-058"/>
+        <filter val="dd-2102-059"/>
+        <filter val="dd-2102-060"/>
+        <filter val="dd-2102-061"/>
+        <filter val="dd-2102-062"/>
+        <filter val="dd-2102-063"/>
+        <filter val="dd-2102-064"/>
+        <filter val="dd-2102-065"/>
+        <filter val="dd-2102-066"/>
+        <filter val="dd-2102-067"/>
+        <filter val="dd-2102-068"/>
+        <filter val="dd-2102-069"/>
+        <filter val="dd-2102-070"/>
+        <filter val="dd-2102-071"/>
+        <filter val="dd-2102-072"/>
+        <filter val="dd-2102-073"/>
+        <filter val="dd-2102-074"/>
+        <filter val="dd-2102-075"/>
+        <filter val="dd-2102-076"/>
+        <filter val="dd-2102-077"/>
+        <filter val="dd-2102-078"/>
+        <filter val="dd-2102-079"/>
+        <filter val="dd-2102-080"/>
+        <filter val="dd-2102-081"/>
+        <filter val="dd-2102-082"/>
+        <filter val="dd-2102-083"/>
+        <filter val="dd-2102-084"/>
+        <filter val="dd-2102-085"/>
+        <filter val="dd-2102-086"/>
+        <filter val="dd-2102-087"/>
+        <filter val="dd-2102-088"/>
+        <filter val="dd-2102-089"/>
+        <filter val="dd-2102-090"/>
+        <filter val="dd-2102-091"/>
+        <filter val="dd-2102-092"/>
+        <filter val="dd-2102-093"/>
+        <filter val="dd-2102-094"/>
+        <filter val="dd-2102-095"/>
+        <filter val="dd-2102-096"/>
+        <filter val="dd-2102-097"/>
+        <filter val="dd-2102-098"/>
+        <filter val="dd-2102-099"/>
+        <filter val="dd-2102-100"/>
+        <filter val="dd-2102-101"/>
+        <filter val="dd-2102-102"/>
+        <filter val="dd-2102-103"/>
+        <filter val="dd-2102-104"/>
+        <filter val="dd-2102-105"/>
+        <filter val="dd-2102-106"/>
+        <filter val="dd-2102-107"/>
+        <filter val="dd-2102-108"/>
+        <filter val="dd-2102-109"/>
+        <filter val="dd-2102-110"/>
+        <filter val="dd-2102-111"/>
+        <filter val="dd-2102-112"/>
+        <filter val="dd-2102-113"/>
+        <filter val="dd-2102-114"/>
+        <filter val="dd-2102-115"/>
+        <filter val="dd-2102-116"/>
+        <filter val="dd-2102-117"/>
+        <filter val="dd-2102-118"/>
+        <filter val="dd-2102-119"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S133">
+    <sortCondition ref="B2:B133"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Synoptic/Data/2021-02/202102_GHG_GCHeadspace.xlsx
+++ b/Synoptic/Data/2021-02/202102_GHG_GCHeadspace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carla López Lloreda\Dropbox\Grad school\Research\Delmarva project\Projects\Synoptic\Data\2021-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178DD295-A495-45D5-8C4D-8EC00842DC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC028090-F763-4415-A2EA-231B73A1592E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="327">
   <si>
     <t>GC_Number</t>
   </si>
@@ -995,6 +995,12 @@
   </si>
   <si>
     <t>lab + 100</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>TR</t>
   </si>
 </sst>
 </file>
@@ -1844,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2052,7 +2058,7 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
@@ -2108,7 +2114,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -2164,7 +2170,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
@@ -2556,7 +2562,7 @@
         <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="G17" t="s">
         <v>58</v>
@@ -2612,7 +2618,7 @@
         <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="G18" t="s">
         <v>58</v>
@@ -2668,7 +2674,7 @@
         <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="G19" t="s">
         <v>58</v>
@@ -7754,10 +7760,10 @@
         <v>1216.4821010000001</v>
       </c>
       <c r="E114" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="G114" t="s">
         <v>293</v>
@@ -7810,10 +7816,10 @@
         <v>1169.115004</v>
       </c>
       <c r="E115" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="G115" t="s">
         <v>293</v>
@@ -7866,10 +7872,10 @@
         <v>769.27995350000003</v>
       </c>
       <c r="E116" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="G116" t="s">
         <v>293</v>
